--- a/data/results/all_upos_annotated.xlsx
+++ b/data/results/all_upos_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730368E1-E9A8-4D48-BC1C-B6B4916D2660}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF352670-8DAD-4BB4-B5BB-55088CC2FF2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="1565">
   <si>
     <t>Token</t>
   </si>
@@ -4712,6 +4712,9 @@
   </si>
   <si>
     <t>special</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -4783,7 +4786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4801,6 +4804,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5090,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" activeCellId="1" sqref="I87 I9"/>
+    <sheetView tabSelected="1" topLeftCell="A933" workbookViewId="0">
+      <selection activeCell="I951" sqref="I951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8607,7 +8614,7 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -8636,7 +8643,7 @@
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -8781,7 +8788,7 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -9651,7 +9658,7 @@
         <v>9</v>
       </c>
       <c r="I157" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -9854,7 +9861,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,7 +10209,7 @@
         <v>9</v>
       </c>
       <c r="I176" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -10753,7 +10760,7 @@
         <v>83</v>
       </c>
       <c r="I195" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -12957,7 +12964,7 @@
         <v>9</v>
       </c>
       <c r="I271" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -15219,7 +15226,7 @@
         <v>13</v>
       </c>
       <c r="I349" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -15248,7 +15255,7 @@
         <v>9</v>
       </c>
       <c r="I350" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -15596,7 +15603,7 @@
         <v>13</v>
       </c>
       <c r="I362" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -15828,7 +15835,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -16292,7 +16299,7 @@
         <v>9</v>
       </c>
       <c r="I386" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -16553,7 +16560,7 @@
         <v>9</v>
       </c>
       <c r="I395" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -16640,7 +16647,7 @@
         <v>9</v>
       </c>
       <c r="I398" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -16727,7 +16734,7 @@
         <v>9</v>
       </c>
       <c r="I401" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -17539,7 +17546,7 @@
         <v>9</v>
       </c>
       <c r="I429" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -17626,7 +17633,7 @@
         <v>9</v>
       </c>
       <c r="I432" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -17742,7 +17749,7 @@
         <v>9</v>
       </c>
       <c r="I436" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -18554,7 +18561,7 @@
         <v>9</v>
       </c>
       <c r="I464" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -18699,7 +18706,7 @@
         <v>9</v>
       </c>
       <c r="I469" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -18931,7 +18938,7 @@
         <v>9</v>
       </c>
       <c r="I477" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -22585,7 +22592,7 @@
         <v>9</v>
       </c>
       <c r="I603" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -23629,7 +23636,7 @@
         <v>13</v>
       </c>
       <c r="I639" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -23745,7 +23752,7 @@
         <v>9</v>
       </c>
       <c r="I643" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -23832,7 +23839,7 @@
         <v>83</v>
       </c>
       <c r="I646" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -24122,7 +24129,7 @@
         <v>9</v>
       </c>
       <c r="I656" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -25572,7 +25579,7 @@
         <v>9</v>
       </c>
       <c r="I706" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -25833,7 +25840,7 @@
         <v>13</v>
       </c>
       <c r="I715" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
@@ -26529,7 +26536,7 @@
         <v>9</v>
       </c>
       <c r="I739" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -27428,7 +27435,7 @@
         <v>9</v>
       </c>
       <c r="I770" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
@@ -27660,7 +27667,7 @@
         <v>41</v>
       </c>
       <c r="I778" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
@@ -27921,7 +27928,7 @@
         <v>83</v>
       </c>
       <c r="I787" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
@@ -27950,7 +27957,7 @@
         <v>9</v>
       </c>
       <c r="I788" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
@@ -29458,7 +29465,7 @@
         <v>9</v>
       </c>
       <c r="I840" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
@@ -29835,7 +29842,7 @@
         <v>9</v>
       </c>
       <c r="I853" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -29893,7 +29900,7 @@
         <v>9</v>
       </c>
       <c r="I855" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
@@ -30125,7 +30132,7 @@
         <v>9</v>
       </c>
       <c r="I863" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -30647,7 +30654,7 @@
         <v>13</v>
       </c>
       <c r="I881" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -30879,7 +30886,7 @@
         <v>9</v>
       </c>
       <c r="I889" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/results/all_upos_annotated.xlsx
+++ b/data/results/all_upos_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF352670-8DAD-4BB4-B5BB-55088CC2FF2B}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C99CF542-C091-4084-9288-EA450904A29B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="-135" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="1564">
   <si>
     <t>Token</t>
   </si>
@@ -4697,9 +4697,6 @@
   </si>
   <si>
     <t>foreign</t>
-  </si>
-  <si>
-    <t>annotation</t>
   </si>
   <si>
     <t>impersonal</t>
@@ -5097,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A933" workbookViewId="0">
-      <selection activeCell="I951" sqref="I951"/>
+    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
+      <selection activeCell="I852" sqref="I852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6352,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8614,7 +8611,7 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -8788,7 +8785,7 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -9658,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="I157" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -9861,7 +9858,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -10209,7 +10206,7 @@
         <v>9</v>
       </c>
       <c r="I176" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -10760,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="I195" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -12964,7 +12961,7 @@
         <v>9</v>
       </c>
       <c r="I271" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -15226,7 +15223,7 @@
         <v>13</v>
       </c>
       <c r="I349" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -15255,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="I350" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -15603,7 +15600,7 @@
         <v>13</v>
       </c>
       <c r="I362" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -15835,7 +15832,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -16299,7 +16296,7 @@
         <v>9</v>
       </c>
       <c r="I386" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -16560,7 +16557,7 @@
         <v>9</v>
       </c>
       <c r="I395" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -16647,7 +16644,7 @@
         <v>9</v>
       </c>
       <c r="I398" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -16734,7 +16731,7 @@
         <v>9</v>
       </c>
       <c r="I401" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -17546,7 +17543,7 @@
         <v>9</v>
       </c>
       <c r="I429" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -17633,7 +17630,7 @@
         <v>9</v>
       </c>
       <c r="I432" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -17749,7 +17746,7 @@
         <v>9</v>
       </c>
       <c r="I436" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -18561,7 +18558,7 @@
         <v>9</v>
       </c>
       <c r="I464" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -18706,7 +18703,7 @@
         <v>9</v>
       </c>
       <c r="I469" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -18938,7 +18935,7 @@
         <v>9</v>
       </c>
       <c r="I477" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -19576,7 +19573,7 @@
         <v>13</v>
       </c>
       <c r="I499" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -19663,7 +19660,7 @@
         <v>13</v>
       </c>
       <c r="I502" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -22592,7 +22589,7 @@
         <v>9</v>
       </c>
       <c r="I603" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -23375,7 +23372,7 @@
         <v>13</v>
       </c>
       <c r="I630" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -23636,7 +23633,7 @@
         <v>13</v>
       </c>
       <c r="I639" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -23752,7 +23749,7 @@
         <v>9</v>
       </c>
       <c r="I643" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -23839,7 +23836,7 @@
         <v>83</v>
       </c>
       <c r="I646" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -24129,7 +24126,7 @@
         <v>9</v>
       </c>
       <c r="I656" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -24680,7 +24677,7 @@
         <v>9</v>
       </c>
       <c r="I675" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
@@ -25579,7 +25576,7 @@
         <v>9</v>
       </c>
       <c r="I706" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -25840,7 +25837,7 @@
         <v>13</v>
       </c>
       <c r="I715" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
@@ -26333,7 +26330,7 @@
         <v>13</v>
       </c>
       <c r="I732" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.25">
@@ -26536,7 +26533,7 @@
         <v>9</v>
       </c>
       <c r="I739" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -26739,7 +26736,7 @@
         <v>9</v>
       </c>
       <c r="I746" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.25">
@@ -27261,7 +27258,7 @@
         <v>13</v>
       </c>
       <c r="I764" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.25">
@@ -27435,7 +27432,7 @@
         <v>9</v>
       </c>
       <c r="I770" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
@@ -27667,7 +27664,7 @@
         <v>41</v>
       </c>
       <c r="I778" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
@@ -27928,7 +27925,7 @@
         <v>83</v>
       </c>
       <c r="I787" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
@@ -27957,7 +27954,7 @@
         <v>9</v>
       </c>
       <c r="I788" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
@@ -29465,7 +29462,7 @@
         <v>9</v>
       </c>
       <c r="I840" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
@@ -29523,7 +29520,7 @@
         <v>10</v>
       </c>
       <c r="I842" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
@@ -29813,7 +29810,7 @@
         <v>16</v>
       </c>
       <c r="I852" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
@@ -29842,7 +29839,7 @@
         <v>9</v>
       </c>
       <c r="I853" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -29900,7 +29897,7 @@
         <v>9</v>
       </c>
       <c r="I855" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
@@ -30132,7 +30129,7 @@
         <v>9</v>
       </c>
       <c r="I863" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -30451,7 +30448,7 @@
         <v>9</v>
       </c>
       <c r="I874" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
@@ -30654,7 +30651,7 @@
         <v>13</v>
       </c>
       <c r="I881" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -30886,7 +30883,7 @@
         <v>9</v>
       </c>
       <c r="I889" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
@@ -31495,7 +31492,7 @@
         <v>13</v>
       </c>
       <c r="I910" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
@@ -32597,7 +32594,7 @@
         <v>41</v>
       </c>
       <c r="I948" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/results/all_upos_annotated.xlsx
+++ b/data/results/all_upos_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C99CF542-C091-4084-9288-EA450904A29B}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_1F518CBB445CD00F62355476585DCE3A87414059" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23E8431-A254-44AA-AAE1-4F1BD3799438}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="-135" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4705,13 +4705,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>grammar</t>
   </si>
 </sst>
 </file>
@@ -5095,7 +5095,7 @@
   <dimension ref="A1:I955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
-      <selection activeCell="I852" sqref="I852"/>
+      <selection activeCell="I853" sqref="I853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>1548</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6349,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8611,7 +8611,7 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -8785,7 +8785,7 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -9655,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="I157" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -9858,7 +9858,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>9</v>
       </c>
       <c r="I176" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -10757,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="I195" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -11482,7 +11482,7 @@
         <v>13</v>
       </c>
       <c r="I220" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -12961,7 +12961,7 @@
         <v>9</v>
       </c>
       <c r="I271" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -15223,7 +15223,7 @@
         <v>13</v>
       </c>
       <c r="I349" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="I350" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -15600,7 +15600,7 @@
         <v>13</v>
       </c>
       <c r="I362" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -15832,7 +15832,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -16296,7 +16296,7 @@
         <v>9</v>
       </c>
       <c r="I386" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -16557,7 +16557,7 @@
         <v>9</v>
       </c>
       <c r="I395" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -16644,7 +16644,7 @@
         <v>9</v>
       </c>
       <c r="I398" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -16731,7 +16731,7 @@
         <v>9</v>
       </c>
       <c r="I401" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -17485,7 +17485,7 @@
         <v>13</v>
       </c>
       <c r="I427" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -17543,7 +17543,7 @@
         <v>9</v>
       </c>
       <c r="I429" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -17630,7 +17630,7 @@
         <v>9</v>
       </c>
       <c r="I432" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -17746,7 +17746,7 @@
         <v>9</v>
       </c>
       <c r="I436" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -18558,7 +18558,7 @@
         <v>9</v>
       </c>
       <c r="I464" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -18703,7 +18703,7 @@
         <v>9</v>
       </c>
       <c r="I469" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -18935,7 +18935,7 @@
         <v>9</v>
       </c>
       <c r="I477" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
         <v>9</v>
       </c>
       <c r="I490" t="s">
-        <v>1548</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -20588,7 +20588,7 @@
         <v>41</v>
       </c>
       <c r="I534" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -22328,7 +22328,7 @@
         <v>41</v>
       </c>
       <c r="I594" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -22589,7 +22589,7 @@
         <v>9</v>
       </c>
       <c r="I603" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -23633,7 +23633,7 @@
         <v>13</v>
       </c>
       <c r="I639" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -23749,7 +23749,7 @@
         <v>9</v>
       </c>
       <c r="I643" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -23836,7 +23836,7 @@
         <v>83</v>
       </c>
       <c r="I646" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -24126,7 +24126,7 @@
         <v>9</v>
       </c>
       <c r="I656" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -25576,7 +25576,7 @@
         <v>9</v>
       </c>
       <c r="I706" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -25837,7 +25837,7 @@
         <v>13</v>
       </c>
       <c r="I715" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
@@ -26533,7 +26533,7 @@
         <v>9</v>
       </c>
       <c r="I739" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -27432,7 +27432,7 @@
         <v>9</v>
       </c>
       <c r="I770" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
@@ -27664,7 +27664,7 @@
         <v>41</v>
       </c>
       <c r="I778" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
@@ -27925,7 +27925,7 @@
         <v>83</v>
       </c>
       <c r="I787" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
@@ -27954,7 +27954,7 @@
         <v>9</v>
       </c>
       <c r="I788" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
@@ -29462,7 +29462,7 @@
         <v>9</v>
       </c>
       <c r="I840" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
@@ -29810,7 +29810,7 @@
         <v>16</v>
       </c>
       <c r="I852" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
@@ -29839,7 +29839,7 @@
         <v>9</v>
       </c>
       <c r="I853" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -29897,7 +29897,7 @@
         <v>9</v>
       </c>
       <c r="I855" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
@@ -30129,7 +30129,7 @@
         <v>9</v>
       </c>
       <c r="I863" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -30651,7 +30651,7 @@
         <v>13</v>
       </c>
       <c r="I881" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -30883,7 +30883,7 @@
         <v>9</v>
       </c>
       <c r="I889" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
@@ -31492,7 +31492,7 @@
         <v>13</v>
       </c>
       <c r="I910" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
